--- a/Excels/NG.xlsx
+++ b/Excels/NG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,6 +25,7 @@
     <sheet name="TemplateManagement" sheetId="15" r:id="rId11"/>
     <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="1279">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3407,9 +3408,6 @@
     <t>Row10</t>
   </si>
   <si>
-    <t>Amount (Ksh)</t>
-  </si>
-  <si>
     <t>To/From</t>
   </si>
   <si>
@@ -3440,9 +3438,6 @@
     <t>Recharge History</t>
   </si>
   <si>
-    <t>Charges (Ksh)</t>
-  </si>
-  <si>
     <t>Bundle Name</t>
   </si>
   <si>
@@ -3467,9 +3462,6 @@
     <t>Validity</t>
   </si>
   <si>
-    <t>Bundle Price (Ksh)</t>
-  </si>
-  <si>
     <t>SMS History</t>
   </si>
   <si>
@@ -3515,9 +3507,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Loan Amount (Ksh)</t>
-  </si>
-  <si>
     <t>Credited On</t>
   </si>
   <si>
@@ -3758,7 +3747,137 @@
     <t>NG Action Authentication</t>
   </si>
   <si>
-    <t>SmFuQDIwMjE</t>
+    <t>Prod Customer Number</t>
+  </si>
+  <si>
+    <t>Prod SIM Number</t>
+  </si>
+  <si>
+    <t>9079239372</t>
+  </si>
+  <si>
+    <t>8923420037266950000</t>
+  </si>
+  <si>
+    <t>8923420037266956985</t>
+  </si>
+  <si>
+    <t>Row11</t>
+  </si>
+  <si>
+    <t>Row12</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Charges (ZMW)</t>
+  </si>
+  <si>
+    <t>Bundle Price (ZMW)</t>
+  </si>
+  <si>
+    <t>Loan Amount (ZMW)</t>
+  </si>
+  <si>
+    <t>Service Details</t>
+  </si>
+  <si>
+    <t>HLR Code Detail</t>
+  </si>
+  <si>
+    <t>More Airtel Money History</t>
+  </si>
+  <si>
+    <t>Amount
+(ZMW)</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Service Charge
+(ZMW)</t>
+  </si>
+  <si>
+    <t>Pre balance
+(ZMW)</t>
+  </si>
+  <si>
+    <t>Post balance
+(ZMW)</t>
+  </si>
+  <si>
+    <t>Quick Actions</t>
+  </si>
+  <si>
+    <t>Action Trail Tab</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Agent Id</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Category code</t>
+  </si>
+  <si>
+    <t>Test Data-UAT</t>
+  </si>
+  <si>
+    <t>Test Data-Prod</t>
+  </si>
+  <si>
+    <t>SIM Bar Unbar</t>
+  </si>
+  <si>
+    <t>SIM Lost</t>
+  </si>
+  <si>
+    <t>SIM Broken</t>
+  </si>
+  <si>
+    <t>Voucher Id</t>
+  </si>
+  <si>
+    <t>24070996121021997829</t>
+  </si>
+  <si>
+    <t>QXByQDIwMjE</t>
   </si>
 </sst>
 </file>
@@ -3900,7 +4019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3921,11 +4040,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3977,6 +4102,54 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
           <a:ext cx="304800" cy="301625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4262,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="B3 D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,7 +4446,7 @@
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4319,8 +4492,14 @@
       <c r="O1" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="22" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2388008</v>
       </c>
@@ -4333,16 +4512,25 @@
       <c r="D2">
         <v>9079239372</v>
       </c>
+      <c r="I2" s="23" t="s">
+        <v>1240</v>
+      </c>
       <c r="O2" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="23" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1240</v>
+        <v>1278</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1088</v>
@@ -4350,8 +4538,11 @@
       <c r="D3" s="1">
         <v>9078586352</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="23" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2390932</v>
       </c>
@@ -4364,8 +4555,11 @@
       <c r="D4" s="1">
         <v>9079403863</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="23" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2388008</v>
       </c>
@@ -4374,6 +4568,12 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>1089</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9079403863</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
@@ -4382,6 +4582,7 @@
     <hyperlink ref="B4" r:id="rId2" display="July@123$"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4478,40 +4679,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1204</v>
+      <c r="A1" s="20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4521,7 +4722,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
   </sheetData>
@@ -4549,19 +4750,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>1213</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4775,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4582,94 +4783,167 @@
     <col min="1" max="1" width="13.7109375" style="16" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" style="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22.5703125" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="22" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="22" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" style="22" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="22" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5703125" style="21" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>1219</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="G1" s="21" t="s">
         <v>1220</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>1221</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>1222</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>1223</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>1224</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>1225</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>1226</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>1227</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>1228</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>1229</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="16">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>1233</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>1234</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>1238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4728,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4750,475 +5024,589 @@
     <col min="12" max="16384" width="12.5703125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1112</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="22" t="s">
         <v>1113</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>1114</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="22" t="s">
         <v>1115</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="22" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="22" t="s">
         <v>1117</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="22" t="s">
         <v>1118</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="22" t="s">
         <v>1119</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="22" t="s">
         <v>1120</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="24" t="s">
         <v>1121</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="24" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="L1" s="22" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>1035</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="25" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>1123</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="22" t="s">
         <v>1125</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="22" t="s">
         <v>1126</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>1127</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>1128</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C15" s="22" t="s">
         <v>1129</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D15" s="24" t="s">
         <v>1130</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E15" s="24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>1131</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="G15" s="22" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>1133</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>1129</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="D20" s="24" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13981,13 +14369,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
     </row>
